--- a/1_sem/DigitlCulture/3/M3102_Kruglov_Georgiy_Nikolaevich_Rabota3_var#9.xlsx
+++ b/1_sem/DigitlCulture/3/M3102_Kruglov_Georgiy_Nikolaevich_Rabota3_var#9.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/ITMO/1_sem/DigitlCulture/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B55CF-4BDF-AA4B-8227-0A85BEFC4A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA852227-F6CD-954C-98C5-47E5E2922D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{7BF281B1-3F58-1247-9987-EE22B4DFA9C4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{7BF281B1-3F58-1247-9987-EE22B4DFA9C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Последовательности" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Поиск решения'!$F$6</definedName>
@@ -75,8 +75,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Арифметические последовательности</t>
   </si>
@@ -256,16 +278,51 @@
   </si>
   <si>
     <t>Сумма всех показателей</t>
+  </si>
+  <si>
+    <t>01.10.92</t>
+  </si>
+  <si>
+    <t>14.11.92</t>
+  </si>
+  <si>
+    <t>05.07.93</t>
+  </si>
+  <si>
+    <t>02.08.93</t>
+  </si>
+  <si>
+    <t>27.06.94</t>
+  </si>
+  <si>
+    <t>25.08.94</t>
+  </si>
+  <si>
+    <t>15.04.97</t>
+  </si>
+  <si>
+    <t>16.04.97</t>
+  </si>
+  <si>
+    <t>17.04.97</t>
+  </si>
+  <si>
+    <t>18.04.97</t>
+  </si>
+  <si>
+    <t>19.04.97</t>
+  </si>
+  <si>
+    <t>20.04.97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -742,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -771,9 +828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,6 +862,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,15 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -862,14 +931,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,42 +952,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2252,6 +2313,7 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="16"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4526,33 +4588,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412BF7A2-AC4B-0340-99ED-145592139D28}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -4677,24 +4740,24 @@
       <c r="P4" s="16"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -4881,6 +4944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA84626-561C-9846-ACC2-AA9BA4E0FC13}">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -4890,7 +4954,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4928,7 +4992,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4974,7 +5038,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="60" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5012,7 +5076,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -5048,7 +5112,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5105,60 +5169,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81081E4A-C0C9-B648-907E-3151E3269455}">
-  <dimension ref="A1:AU18"/>
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:O11"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="30" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="60"/>
+      <c r="E3" s="68"/>
       <c r="G3" s="22" t="s">
         <v>25</v>
       </c>
@@ -5170,20 +5235,20 @@
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <v>33878</v>
+      <c r="A4" s="87" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="21">
-        <v>3</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
-        <f>IF(C4&lt;D4,$I$4,IF(C4=D4,$H$4,$G$4))</f>
+        <v>23</v>
+      </c>
+      <c r="D4" s="27">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E15" si="0">IF(C4&lt;D4,$I$4,IF(C4=D4,$H$4,$G$4))</f>
         <v>3</v>
       </c>
       <c r="G4" s="21">
@@ -5197,16 +5262,16 @@
       </c>
       <c r="AT4">
         <f>ABS(C4-D4)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AU4">
-        <f>MONTH(A4)</f>
-        <v>10</v>
+        <f>MONTH(G17)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
-        <v>33922</v>
+      <c r="A5" s="87" t="s">
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -5214,11 +5279,11 @@
       <c r="C5" s="21">
         <v>0</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>4</v>
       </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:E15" si="0">IF(C5&lt;D5,$I$4,IF(C5=D5,$H$4,$G$4))</f>
+      <c r="E5" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT5">
@@ -5226,13 +5291,13 @@
         <v>4</v>
       </c>
       <c r="AU5">
-        <f t="shared" ref="AU5:AU15" si="2">MONTH(A5)</f>
-        <v>11</v>
+        <f>MONTH(G18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <v>34155</v>
+      <c r="A6" s="87" t="s">
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -5240,30 +5305,30 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
       <c r="AT6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AU6">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>MONTH(G19)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
-        <v>34183</v>
+      <c r="A7" s="87" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -5271,28 +5336,28 @@
       <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
       <c r="AT7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>MONTH(G20)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <v>34512</v>
+      <c r="A8" s="87" t="s">
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -5300,10 +5365,10 @@
       <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5320,14 +5385,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AU8">
-        <f t="shared" si="2"/>
-        <v>6</v>
+      <c r="AU8" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>34572</v>
+      <c r="A9" s="87" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -5335,10 +5400,10 @@
       <c r="C9" s="21">
         <v>6</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5358,14 +5423,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AU9">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="AU9" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <v>35535</v>
+      <c r="A10" s="87" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -5373,10 +5438,10 @@
       <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>4</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5384,14 +5449,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AU10">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="AU10" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
-        <v>35536</v>
+      <c r="A11" s="87" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -5399,134 +5464,134 @@
       <c r="C11" s="21">
         <v>2</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>1</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
       <c r="AT11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AU11">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="AU11" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>35537</v>
-      </c>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="21">
         <v>4</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>2</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53" t="s">
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="53"/>
+      <c r="O12" s="72"/>
       <c r="AT12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AU12">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="AU12" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>35538</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="21">
         <v>2</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>3</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="52">
+      <c r="G13" s="71">
         <f>COUNTIF(C4:C15,"&gt;1")</f>
         <v>6</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52">
-        <f>COUNTIF(AT2:AT15,"&gt;1")</f>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" cm="1">
+        <f t="array" ref="I13">SUM(IF(ABS(C4:C15-D4:D15)&gt;1,1,0))</f>
         <v>6</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52">
-        <f>COUNTIFS(AU4:AU15,"&gt; 5",AU4:AU15,"&lt; 9")</f>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="85">
+        <f>COUNTIF(A4:A15, "*.06.*") + COUNTIF(A4:A15, "*.07.*") + COUNTIF(A4:A15, "*.08.*")</f>
         <v>4</v>
       </c>
-      <c r="O13" s="52"/>
+      <c r="O13" s="71"/>
       <c r="AT13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AU13">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="AU13" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>35539</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="21">
         <v>3</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>0</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5535,25 +5600,25 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AU14">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="AU14" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <v>35540</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5562,40 +5627,67 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU15">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="AU15" t="e">
+        <f>MONTH(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="27">
+      <c r="D16" s="29"/>
+      <c r="E16" s="26">
         <f>SUM(E4:E15)</f>
         <v>19</v>
       </c>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
+      <c r="G17" s="86"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="30"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="29"/>
+      <c r="G18" s="86"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="86"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="86"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="86"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="86"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="86"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="86"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="86"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="86"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="86"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="N13:O13"/>
@@ -5605,6 +5697,11 @@
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="G11:O11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -5617,41 +5714,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7130F555-6DE6-E048-B6CD-B775257DAD7E}">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="63" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5660,9 +5758,9 @@
       <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="38" t="s">
+      <c r="G2" s="38"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -5671,21 +5769,21 @@
       <c r="L2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="6">
-        <v>3.5714285714285712</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0714285714285716</v>
+        <v>3.75</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="6">
         <v>3.0936555891238666</v>
       </c>
@@ -5695,38 +5793,38 @@
       <c r="L3" s="2">
         <v>4.141993957703928</v>
       </c>
-      <c r="O3" s="39"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="G4" s="39"/>
-      <c r="I4" s="64"/>
-      <c r="O4" s="39"/>
+      <c r="A4" s="79"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="79"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="F5" s="40" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="F5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="68" t="s">
+      <c r="G5" s="38"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="N5" s="40" t="s">
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="N5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="39"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -5738,10 +5836,10 @@
       </c>
       <c r="F6" s="2">
         <f>B6*B3+C6*C3+D6*D3</f>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="I6" s="64"/>
+        <v>7.5</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="6">
         <v>8</v>
       </c>
@@ -5755,26 +5853,26 @@
         <f>J6*J3+K6*K3+L6*L3</f>
         <v>27.404833836858</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="G7" s="39"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="68" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="G7" s="38"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="O7" s="39"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="6">
         <v>2</v>
       </c>
@@ -5786,12 +5884,12 @@
       </c>
       <c r="F8" s="2">
         <f>B8*B3+C8*C3+D8*D3</f>
-        <v>8.2142857142857135</v>
-      </c>
-      <c r="G8" s="41">
+        <v>3.75</v>
+      </c>
+      <c r="G8" s="40">
         <v>21</v>
       </c>
-      <c r="I8" s="64"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="6">
         <v>1</v>
       </c>
@@ -5805,12 +5903,12 @@
         <f>J8*J3+K8*K3+L8*L3</f>
         <v>34</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="6">
         <v>3</v>
       </c>
@@ -5824,10 +5922,10 @@
         <f>B9*B3+C9*C3+D9*D3</f>
         <v>15</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="40">
         <v>15</v>
       </c>
-      <c r="I9" s="64"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="6">
         <v>7</v>
       </c>
@@ -5841,45 +5939,45 @@
         <f>J9*J3+K9*K3+L9*L3</f>
         <v>19</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="40">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="42">
+      <c r="A10" s="80"/>
+      <c r="B10" s="41">
         <v>7</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="42">
         <v>0</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>6</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="43">
+      <c r="E10" s="24"/>
+      <c r="F10" s="42">
         <f>B10*B3+C10*C3+D10*D3</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="43">
         <v>25</v>
       </c>
-      <c r="G10" s="44">
-        <v>25</v>
-      </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="42">
+      <c r="I10" s="80"/>
+      <c r="J10" s="41">
         <v>1</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="42">
         <v>8</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="42">
         <v>-2</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="43">
+      <c r="M10" s="24"/>
+      <c r="N10" s="42">
         <f>J10*J3+K10*K3+L10*L3</f>
         <v>21.999999999999996</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="43">
         <v>22</v>
       </c>
     </row>
@@ -5900,10 +5998,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5999C2B3-B8D9-3C43-A325-1E31FAD4B4CB}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5918,18 +6017,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
         <v>49</v>
       </c>
       <c r="G1" s="81" t="s">
@@ -5937,30 +6036,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="45">
         <v>190</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="45">
         <v>211</v>
       </c>
       <c r="D3" s="2">
@@ -5975,7 +6074,7 @@
         <f>E3-D3</f>
         <v>-6.9689251817752753E-4</v>
       </c>
-      <c r="G3" s="83">
+      <c r="G3" s="53">
         <f>(C3-B3)/B3</f>
         <v>0.11052631578947368</v>
       </c>
@@ -5984,10 +6083,10 @@
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>55101</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>63946</v>
       </c>
       <c r="D4" s="2">
@@ -6002,73 +6101,73 @@
         <f t="shared" ref="F4:F7" si="1">E4-D4</f>
         <v>-0.17316306355901556</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="53">
         <f t="shared" ref="G4:G7" si="2">(C4-B4)/B4</f>
         <v>0.16052340247908387</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="48">
         <v>9885</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="48">
         <v>31032</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="46">
         <f t="shared" si="0"/>
         <v>0.151573233562316</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="46">
         <f t="shared" si="0"/>
         <v>0.32598350753716054</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="46">
         <f t="shared" si="1"/>
         <v>0.17441027397484454</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="54">
         <f t="shared" si="2"/>
         <v>2.1393019726858875</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="49">
         <v>6</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="49">
         <v>6</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="47">
         <f t="shared" si="0"/>
         <v>9.2001962708537782E-5</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="47">
         <f t="shared" si="0"/>
         <v>6.3028520405483484E-5</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="47">
         <f t="shared" si="1"/>
         <v>-2.8973442303054298E-5</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="48">
         <v>34</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="48">
         <v>0</v>
       </c>
       <c r="D7" s="2">
@@ -6083,20 +6182,20 @@
         <f t="shared" si="1"/>
         <v>-5.2134445534838072E-4</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="53">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="51">
         <f>SUM(B3:B7)</f>
         <v>65216</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="51">
         <f>SUM(C3:C7)</f>
         <v>95195</v>
       </c>
@@ -6115,10 +6214,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141061B5-4E12-E941-B901-FCA1DA9D5BBB}">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6130,9 +6230,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F525E4-7BA0-E84A-BA79-0A9B2538A366}">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="133" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
